--- a/data/downloads/Tata Steel.xlsx
+++ b/data/downloads/Tata Steel.xlsx
@@ -4102,7 +4102,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>152.40</v>
+        <v>151.97</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>190248.94</v>
+        <v>189712.16</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
